--- a/coffeyville pipeline.xlsx
+++ b/coffeyville pipeline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\CO2 TRANSPORT NETWORK MODEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF58B7D5-6DE0-4100-8A6D-307970509F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF0D855-7BDB-436C-9B59-DD9BD4F6B2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{7D3FBEBC-D24A-4E25-953F-F9EA23A735D7}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>coffeyville pipeline</t>
-  </si>
-  <si>
     <t>Lat</t>
   </si>
   <si>
@@ -54,6 +51,9 @@
   </si>
   <si>
     <t>Upper Cap</t>
+  </si>
+  <si>
+    <t>coffeyville-pipeline</t>
   </si>
 </sst>
 </file>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E015116-1662-4078-8CF1-D8A29C51B2BE}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -463,30 +463,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="8">
+        <v>37.044347000000002</v>
+      </c>
+      <c r="B2" s="9">
+        <v>-95.607493000000005</v>
+      </c>
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="1">
-        <v>36.796072000000002</v>
-      </c>
-      <c r="B2" s="4">
-        <v>-96.672489999999996</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -496,539 +496,539 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="1">
-        <v>36.796553000000003</v>
-      </c>
-      <c r="B3" s="4">
-        <v>-96.671546000000006</v>
+      <c r="A3" s="8">
+        <v>37.044141000000003</v>
+      </c>
+      <c r="B3" s="9">
+        <v>-95.602429000000001</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="1">
-        <v>36.796413999999999</v>
-      </c>
-      <c r="B4" s="4">
-        <v>-96.665623999999994</v>
+      <c r="A4" s="8">
+        <v>37.043044999999999</v>
+      </c>
+      <c r="B4" s="9">
+        <v>-95.601656000000006</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1">
-        <v>36.796621999999999</v>
-      </c>
-      <c r="B5" s="4">
-        <v>-96.664079000000001</v>
+      <c r="A5" s="8">
+        <v>37.042223</v>
+      </c>
+      <c r="B5" s="9">
+        <v>-95.593766000000002</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="1">
-        <v>36.798065000000001</v>
-      </c>
-      <c r="B6" s="4">
-        <v>-96.659873000000005</v>
+      <c r="A6" s="8">
+        <v>37.040168000000001</v>
+      </c>
+      <c r="B6" s="9">
+        <v>-95.591442000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="1">
-        <v>36.802807000000001</v>
-      </c>
-      <c r="B7" s="4">
-        <v>-96.631978000000004</v>
+      <c r="A7" s="8">
+        <v>37.034824</v>
+      </c>
+      <c r="B7" s="9">
+        <v>-95.591184999999996</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="1">
-        <v>36.804526000000003</v>
-      </c>
-      <c r="B8" s="4">
-        <v>-96.619446999999994</v>
+      <c r="A8" s="8">
+        <v>37.03687</v>
+      </c>
+      <c r="B8" s="9">
+        <v>-95.591956999999994</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1">
-        <v>36.807962000000003</v>
-      </c>
-      <c r="B9" s="4">
-        <v>-96.586746000000005</v>
+      <c r="A9" s="8">
+        <v>37.030301000000001</v>
+      </c>
+      <c r="B9" s="9">
+        <v>-95.593587999999997</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1">
-        <v>36.811534999999999</v>
-      </c>
-      <c r="B10" s="4">
-        <v>-96.565201999999999</v>
+      <c r="A10" s="8">
+        <v>37.02852</v>
+      </c>
+      <c r="B10" s="9">
+        <v>-95.595990999999998</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1">
-        <v>36.850372</v>
-      </c>
-      <c r="B11" s="4">
-        <v>-96.428809999999999</v>
+      <c r="A11" s="8">
+        <v>37.024270999999999</v>
+      </c>
+      <c r="B11" s="9">
+        <v>-95.595905000000002</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1">
-        <v>36.850509000000002</v>
-      </c>
-      <c r="B12" s="4">
-        <v>-96.344393999999994</v>
+      <c r="A12" s="8">
+        <v>37.009880000000003</v>
+      </c>
+      <c r="B12" s="9">
+        <v>-95.601399000000001</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="1">
-        <v>36.851196000000002</v>
-      </c>
-      <c r="B13" s="4">
-        <v>-96.338758999999996</v>
+      <c r="A13" s="8">
+        <v>37.004258999999998</v>
+      </c>
+      <c r="B13" s="9">
+        <v>-95.608608000000004</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="1">
-        <v>36.852432</v>
-      </c>
-      <c r="B14" s="4">
-        <v>-96.336012999999994</v>
+      <c r="A14" s="8">
+        <v>37.001928999999997</v>
+      </c>
+      <c r="B14" s="9">
+        <v>-95.626718999999994</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1">
-        <v>36.855728999999997</v>
-      </c>
-      <c r="B15" s="4">
-        <v>-96.333608999999996</v>
+      <c r="A15" s="6">
+        <v>36.999285999999998</v>
+      </c>
+      <c r="B15" s="7">
+        <v>-95.639842000000002</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1">
-        <v>36.857514000000002</v>
-      </c>
-      <c r="B16" s="4">
-        <v>-96.316958</v>
+      <c r="A16" s="6">
+        <v>36.999353999999997</v>
+      </c>
+      <c r="B16" s="7">
+        <v>-95.657695000000004</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="1">
-        <v>36.864655999999997</v>
-      </c>
-      <c r="B17" s="4">
-        <v>-96.313697000000005</v>
+      <c r="A17" s="6">
+        <v>36.99812</v>
+      </c>
+      <c r="B17" s="7">
+        <v>-95.660354999999996</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="1">
-        <v>36.868775999999997</v>
-      </c>
-      <c r="B18" s="4">
-        <v>-96.278677999999999</v>
+      <c r="A18" s="6">
+        <v>36.99812</v>
+      </c>
+      <c r="B18" s="7">
+        <v>-95.662930000000003</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="1">
-        <v>36.868639000000002</v>
-      </c>
-      <c r="B19" s="4">
-        <v>-96.278505999999993</v>
+      <c r="A19" s="6">
+        <v>36.999217000000002</v>
+      </c>
+      <c r="B19" s="7">
+        <v>-95.664303000000004</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="1">
-        <v>36.877564999999997</v>
-      </c>
-      <c r="B20" s="4">
-        <v>-96.204819999999998</v>
+      <c r="A20" s="6">
+        <v>36.999217000000002</v>
+      </c>
+      <c r="B20" s="7">
+        <v>-95.682929000000001</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="1">
-        <v>36.878113999999997</v>
-      </c>
-      <c r="B21" s="4">
-        <v>-96.222544999999997</v>
+      <c r="A21" s="6">
+        <v>36.992978999999998</v>
+      </c>
+      <c r="B21" s="7">
+        <v>-95.683099999999996</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="1">
-        <v>36.892119000000001</v>
-      </c>
-      <c r="B22" s="4">
-        <v>-96.213274999999996</v>
+      <c r="A22" s="6">
+        <v>36.992916000000001</v>
+      </c>
+      <c r="B22" s="7">
+        <v>-95.687563999999995</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="1">
-        <v>36.893903999999999</v>
-      </c>
-      <c r="B23" s="4">
-        <v>-96.129846999999998</v>
+      <c r="A23" s="6">
+        <v>36.985438000000002</v>
+      </c>
+      <c r="B23" s="7">
+        <v>-95.687648999999993</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="1">
-        <v>36.892394000000003</v>
-      </c>
-      <c r="B24" s="4">
-        <v>-96.116629000000003</v>
+      <c r="A24" s="6">
+        <v>36.985574999999997</v>
+      </c>
+      <c r="B24" s="7">
+        <v>-95.758031000000003</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="1">
-        <v>36.892256000000003</v>
-      </c>
-      <c r="B25" s="4">
-        <v>-96.116286000000002</v>
+      <c r="A25" s="6">
+        <v>36.977553</v>
+      </c>
+      <c r="B25" s="7">
+        <v>-95.768674000000004</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="1">
-        <v>36.895550999999998</v>
-      </c>
-      <c r="B26" s="4">
-        <v>-96.110620999999995</v>
+      <c r="A26" s="6">
+        <v>36.975563999999999</v>
+      </c>
+      <c r="B26" s="7">
+        <v>-95.773050999999995</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="1">
-        <v>36.925336000000001</v>
-      </c>
-      <c r="B27" s="4">
-        <v>-96.047792999999999</v>
+      <c r="A27" s="2">
+        <v>36.974935000000002</v>
+      </c>
+      <c r="B27" s="5">
+        <v>-95.786817999999997</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="1">
-        <v>36.940703999999997</v>
-      </c>
-      <c r="B28" s="4">
-        <v>-96.037322000000003</v>
+      <c r="A28" s="2">
+        <v>36.975071999999997</v>
+      </c>
+      <c r="B28" s="5">
+        <v>-95.824927000000002</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="1">
-        <v>36.950479999999999</v>
-      </c>
-      <c r="B29" s="4">
-        <v>-96.014319</v>
+      <c r="A29" s="2">
+        <v>36.970545999999999</v>
+      </c>
+      <c r="B29" s="5">
+        <v>-95.828017000000003</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="1">
-        <v>36.958537999999997</v>
-      </c>
-      <c r="B30" s="4">
-        <v>-96.006595000000004</v>
+      <c r="A30" s="2">
+        <v>36.971094999999998</v>
+      </c>
+      <c r="B30" s="5">
+        <v>-95.892561000000001</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="1">
-        <v>36.962242000000003</v>
-      </c>
-      <c r="B31" s="4">
-        <v>-96.002645999999999</v>
+      <c r="A31" s="2">
+        <v>36.976168999999999</v>
+      </c>
+      <c r="B31" s="5">
+        <v>-95.903891000000002</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="1">
-        <v>36.962242000000003</v>
-      </c>
-      <c r="B32" s="4">
-        <v>-96.001101000000006</v>
+      <c r="A32" s="2">
+        <v>36.976443000000003</v>
+      </c>
+      <c r="B32" s="5">
+        <v>-95.920198999999997</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="2">
-        <v>36.963414</v>
+        <v>36.975071999999997</v>
       </c>
       <c r="B33" s="5">
-        <v>-95.992125000000001</v>
+        <v>-95.921228999999997</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="2">
-        <v>36.964649000000001</v>
+        <v>36.963551000000002</v>
       </c>
       <c r="B34" s="5">
-        <v>-95.990922999999995</v>
+        <v>-95.962417000000002</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="2">
-        <v>36.964785999999997</v>
+        <v>36.963276999999998</v>
       </c>
       <c r="B35" s="5">
-        <v>-95.979249999999993</v>
+        <v>-95.966718999999998</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="2">
-        <v>36.963276999999998</v>
+        <v>36.964785999999997</v>
       </c>
       <c r="B36" s="5">
-        <v>-95.966718999999998</v>
+        <v>-95.979249999999993</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="2">
-        <v>36.963551000000002</v>
+        <v>36.964649000000001</v>
       </c>
       <c r="B37" s="5">
-        <v>-95.962417000000002</v>
+        <v>-95.990922999999995</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="2">
-        <v>36.975071999999997</v>
+        <v>36.963414</v>
       </c>
       <c r="B38" s="5">
-        <v>-95.921228999999997</v>
+        <v>-95.992125000000001</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="2">
-        <v>36.976443000000003</v>
-      </c>
-      <c r="B39" s="5">
-        <v>-95.920198999999997</v>
+      <c r="A39" s="1">
+        <v>36.962242000000003</v>
+      </c>
+      <c r="B39" s="4">
+        <v>-96.001101000000006</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="2">
-        <v>36.976168999999999</v>
-      </c>
-      <c r="B40" s="5">
-        <v>-95.903891000000002</v>
+      <c r="A40" s="1">
+        <v>36.962242000000003</v>
+      </c>
+      <c r="B40" s="4">
+        <v>-96.002645999999999</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="2">
-        <v>36.971094999999998</v>
-      </c>
-      <c r="B41" s="5">
-        <v>-95.892561000000001</v>
+      <c r="A41" s="1">
+        <v>36.958537999999997</v>
+      </c>
+      <c r="B41" s="4">
+        <v>-96.006595000000004</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="2">
-        <v>36.970545999999999</v>
-      </c>
-      <c r="B42" s="5">
-        <v>-95.828017000000003</v>
+      <c r="A42" s="1">
+        <v>36.950479999999999</v>
+      </c>
+      <c r="B42" s="4">
+        <v>-96.014319</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="2">
-        <v>36.975071999999997</v>
-      </c>
-      <c r="B43" s="5">
-        <v>-95.824927000000002</v>
+      <c r="A43" s="1">
+        <v>36.940703999999997</v>
+      </c>
+      <c r="B43" s="4">
+        <v>-96.037322000000003</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="2">
-        <v>36.974935000000002</v>
-      </c>
-      <c r="B44" s="5">
-        <v>-95.786817999999997</v>
+      <c r="A44" s="1">
+        <v>36.925336000000001</v>
+      </c>
+      <c r="B44" s="4">
+        <v>-96.047792999999999</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="6">
-        <v>36.975563999999999</v>
-      </c>
-      <c r="B45" s="7">
-        <v>-95.773050999999995</v>
+      <c r="A45" s="1">
+        <v>36.895550999999998</v>
+      </c>
+      <c r="B45" s="4">
+        <v>-96.110620999999995</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="6">
-        <v>36.977553</v>
-      </c>
-      <c r="B46" s="7">
-        <v>-95.768674000000004</v>
+      <c r="A46" s="1">
+        <v>36.892256000000003</v>
+      </c>
+      <c r="B46" s="4">
+        <v>-96.116286000000002</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="6">
-        <v>36.985574999999997</v>
-      </c>
-      <c r="B47" s="7">
-        <v>-95.758031000000003</v>
+      <c r="A47" s="1">
+        <v>36.892394000000003</v>
+      </c>
+      <c r="B47" s="4">
+        <v>-96.116629000000003</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="6">
-        <v>36.985438000000002</v>
-      </c>
-      <c r="B48" s="7">
-        <v>-95.687648999999993</v>
+      <c r="A48" s="1">
+        <v>36.893903999999999</v>
+      </c>
+      <c r="B48" s="4">
+        <v>-96.129846999999998</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="6">
-        <v>36.992916000000001</v>
-      </c>
-      <c r="B49" s="7">
-        <v>-95.687563999999995</v>
+      <c r="A49" s="1">
+        <v>36.892119000000001</v>
+      </c>
+      <c r="B49" s="4">
+        <v>-96.213274999999996</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="6">
-        <v>36.992978999999998</v>
-      </c>
-      <c r="B50" s="7">
-        <v>-95.683099999999996</v>
+      <c r="A50" s="1">
+        <v>36.878113999999997</v>
+      </c>
+      <c r="B50" s="4">
+        <v>-96.222544999999997</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="6">
-        <v>36.999217000000002</v>
-      </c>
-      <c r="B51" s="7">
-        <v>-95.682929000000001</v>
+      <c r="A51" s="1">
+        <v>36.877564999999997</v>
+      </c>
+      <c r="B51" s="4">
+        <v>-96.204819999999998</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="6">
-        <v>36.999217000000002</v>
-      </c>
-      <c r="B52" s="7">
-        <v>-95.664303000000004</v>
+      <c r="A52" s="1">
+        <v>36.868639000000002</v>
+      </c>
+      <c r="B52" s="4">
+        <v>-96.278505999999993</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="6">
-        <v>36.99812</v>
-      </c>
-      <c r="B53" s="7">
-        <v>-95.662930000000003</v>
+      <c r="A53" s="1">
+        <v>36.868775999999997</v>
+      </c>
+      <c r="B53" s="4">
+        <v>-96.278677999999999</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="6">
-        <v>36.99812</v>
-      </c>
-      <c r="B54" s="7">
-        <v>-95.660354999999996</v>
+      <c r="A54" s="1">
+        <v>36.864655999999997</v>
+      </c>
+      <c r="B54" s="4">
+        <v>-96.313697000000005</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="6">
-        <v>36.999353999999997</v>
-      </c>
-      <c r="B55" s="7">
-        <v>-95.657695000000004</v>
+      <c r="A55" s="1">
+        <v>36.857514000000002</v>
+      </c>
+      <c r="B55" s="4">
+        <v>-96.316958</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="6">
-        <v>36.999285999999998</v>
-      </c>
-      <c r="B56" s="7">
-        <v>-95.639842000000002</v>
+      <c r="A56" s="1">
+        <v>36.855728999999997</v>
+      </c>
+      <c r="B56" s="4">
+        <v>-96.333608999999996</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="8">
-        <v>37.001928999999997</v>
-      </c>
-      <c r="B57" s="9">
-        <v>-95.626718999999994</v>
+      <c r="A57" s="1">
+        <v>36.852432</v>
+      </c>
+      <c r="B57" s="4">
+        <v>-96.336012999999994</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="8">
-        <v>37.004258999999998</v>
-      </c>
-      <c r="B58" s="9">
-        <v>-95.608608000000004</v>
+      <c r="A58" s="1">
+        <v>36.851196000000002</v>
+      </c>
+      <c r="B58" s="4">
+        <v>-96.338758999999996</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="8">
-        <v>37.009880000000003</v>
-      </c>
-      <c r="B59" s="9">
-        <v>-95.601399000000001</v>
+      <c r="A59" s="1">
+        <v>36.850509000000002</v>
+      </c>
+      <c r="B59" s="4">
+        <v>-96.344393999999994</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="8">
-        <v>37.024270999999999</v>
-      </c>
-      <c r="B60" s="9">
-        <v>-95.595905000000002</v>
+      <c r="A60" s="1">
+        <v>36.850372</v>
+      </c>
+      <c r="B60" s="4">
+        <v>-96.428809999999999</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="8">
-        <v>37.02852</v>
-      </c>
-      <c r="B61" s="9">
-        <v>-95.595990999999998</v>
+      <c r="A61" s="1">
+        <v>36.811534999999999</v>
+      </c>
+      <c r="B61" s="4">
+        <v>-96.565201999999999</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="8">
-        <v>37.030301000000001</v>
-      </c>
-      <c r="B62" s="9">
-        <v>-95.593587999999997</v>
+      <c r="A62" s="1">
+        <v>36.807962000000003</v>
+      </c>
+      <c r="B62" s="4">
+        <v>-96.586746000000005</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="8">
-        <v>37.03687</v>
-      </c>
-      <c r="B63" s="9">
-        <v>-95.591956999999994</v>
+      <c r="A63" s="1">
+        <v>36.804526000000003</v>
+      </c>
+      <c r="B63" s="4">
+        <v>-96.619446999999994</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="8">
-        <v>37.034824</v>
-      </c>
-      <c r="B64" s="9">
-        <v>-95.591184999999996</v>
+      <c r="A64" s="1">
+        <v>36.802807000000001</v>
+      </c>
+      <c r="B64" s="4">
+        <v>-96.631978000000004</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="8">
-        <v>37.040168000000001</v>
-      </c>
-      <c r="B65" s="9">
-        <v>-95.591442000000001</v>
+      <c r="A65" s="1">
+        <v>36.798065000000001</v>
+      </c>
+      <c r="B65" s="4">
+        <v>-96.659873000000005</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="8">
-        <v>37.042223</v>
-      </c>
-      <c r="B66" s="9">
-        <v>-95.593766000000002</v>
+      <c r="A66" s="1">
+        <v>36.796621999999999</v>
+      </c>
+      <c r="B66" s="4">
+        <v>-96.664079000000001</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="8">
-        <v>37.043044999999999</v>
-      </c>
-      <c r="B67" s="9">
-        <v>-95.601656000000006</v>
+      <c r="A67" s="1">
+        <v>36.796413999999999</v>
+      </c>
+      <c r="B67" s="4">
+        <v>-96.665623999999994</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="8">
-        <v>37.044141000000003</v>
-      </c>
-      <c r="B68" s="9">
-        <v>-95.602429000000001</v>
+      <c r="A68" s="1">
+        <v>36.796553000000003</v>
+      </c>
+      <c r="B68" s="4">
+        <v>-96.671546000000006</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="8">
-        <v>37.044347000000002</v>
-      </c>
-      <c r="B69" s="9">
-        <v>-95.607493000000005</v>
+      <c r="A69" s="1">
+        <v>36.796072000000002</v>
+      </c>
+      <c r="B69" s="4">
+        <v>-96.672489999999996</v>
       </c>
     </row>
   </sheetData>

--- a/coffeyville pipeline.xlsx
+++ b/coffeyville pipeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\CO2 TRANSPORT NETWORK MODEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF0D855-7BDB-436C-9B59-DD9BD4F6B2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC247343-408D-4364-B516-4426603F6A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{7D3FBEBC-D24A-4E25-953F-F9EA23A735D7}"/>
   </bookViews>
@@ -451,7 +451,7 @@
   <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">

--- a/coffeyville pipeline.xlsx
+++ b/coffeyville pipeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\CO2 TRANSPORT NETWORK MODEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC247343-408D-4364-B516-4426603F6A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{091845D3-97EB-4C7B-B5AC-D2CA47912D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{7D3FBEBC-D24A-4E25-953F-F9EA23A735D7}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{7D3FBEBC-D24A-4E25-953F-F9EA23A735D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -451,7 +451,7 @@
   <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -480,10 +480,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8">
-        <v>37.044347000000002</v>
+        <v>37.046080000000003</v>
       </c>
       <c r="B2" s="9">
-        <v>-95.607493000000005</v>
+        <v>-95.604206000000005</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
